--- a/inputs/Laos_MICS_Ethnic Groups_Summary_PO_TN.xlsx
+++ b/inputs/Laos_MICS_Ethnic Groups_Summary_PO_TN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/3_Country_II/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/3_Country_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{55B29B29-E48F-4E06-9405-41F13F284E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75CAB0A7-1CB8-4BF1-93F8-6E31CE1F7E1F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{55B29B29-E48F-4E06-9405-41F13F284E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0F7E45-A803-41E2-B9CE-480B71551068}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ethnic_2017 group" sheetId="7" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -2822,14 +2822,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24DD429-D48C-4FE1-84BD-05F73F65D5F9}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.54296875" style="1" customWidth="1"/>
     <col min="7" max="8" width="18.54296875" style="1"/>
@@ -4123,19 +4123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A61442F-6F00-45B7-9701-D9FEC6D83A7C}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="4" max="6" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
